--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kgs\EzenDongstagram\Documents\2. 주간보고서\1주차\일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23409194-3DA8-4D14-860A-B99C5165CBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F23B8-AC6F-4075-A64C-A3AAF1ADFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2024.01.24" sheetId="2" r:id="rId3"/>
     <sheet name="2024.01.25" sheetId="4" r:id="rId4"/>
     <sheet name="2024.01.26" sheetId="6" r:id="rId5"/>
+    <sheet name="2024.01.29" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,14 @@
   </si>
   <si>
     <t>요구분석서 명세서 진행중 유스케이스 명세서 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 표준자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서  유스케이스 기본틀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +286,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -582,20 +603,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -607,17 +628,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -625,17 +646,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -643,17 +664,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -661,17 +682,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -679,17 +700,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -697,17 +718,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -715,17 +736,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -750,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -761,20 +782,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,19 +807,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -808,19 +829,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -830,19 +851,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -852,19 +873,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -874,17 +895,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -892,17 +913,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -910,17 +931,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -955,20 +976,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -980,19 +1001,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1002,19 +1023,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1024,19 +1045,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1046,19 +1067,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1068,17 +1089,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1086,17 +1107,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1104,17 +1125,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1162,20 +1183,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1187,19 +1208,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1209,19 +1230,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1231,19 +1252,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1253,19 +1274,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1275,17 +1296,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1293,17 +1314,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1311,17 +1332,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1359,7 +1380,7 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1545,16 +1566,199 @@
       <c r="F14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC30E8-162F-4A2D-845D-F94C05969670}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kgs\EzenDongstagram\Documents\2. 주간보고서\1주차\일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23409194-3DA8-4D14-860A-B99C5165CBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09E750E-CFA8-4EE9-95BC-DD190984BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="2024.01.24" sheetId="2" r:id="rId3"/>
     <sheet name="2024.01.25" sheetId="4" r:id="rId4"/>
     <sheet name="2024.01.26" sheetId="6" r:id="rId5"/>
+    <sheet name="2024.01.29" sheetId="10" r:id="rId6"/>
+    <sheet name="2024.01.30" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +70,22 @@
   </si>
   <si>
     <t>요구분석서 명세서 진행중 유스케이스 명세서 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 표준자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서  유스케이스 기본틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서  ui 기본틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +295,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -582,20 +624,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -607,17 +649,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -625,17 +667,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -643,17 +685,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -661,17 +703,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -679,17 +721,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -697,17 +739,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -715,17 +757,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -750,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -761,20 +803,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,19 +828,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -808,19 +850,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -830,19 +872,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -852,19 +894,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -874,17 +916,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -892,17 +934,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -910,17 +952,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -955,20 +997,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -980,19 +1022,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1002,19 +1044,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1024,19 +1066,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1046,19 +1088,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1068,17 +1110,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1086,17 +1128,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1104,17 +1146,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1162,20 +1204,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1187,19 +1229,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1209,19 +1251,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1231,19 +1273,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1253,19 +1295,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1275,17 +1317,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1293,17 +1335,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1311,17 +1353,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1359,7 +1401,7 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1545,16 +1587,392 @@
       <c r="F14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC30E8-162F-4A2D-845D-F94C05969670}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FF35DE-D4F8-4141-8E4F-3A4ED6E648CE}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F23B8-AC6F-4075-A64C-A3AAF1ADFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD8E73-31DC-4DBD-B9B0-1A27EA221C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="2024.01.25" sheetId="4" r:id="rId4"/>
     <sheet name="2024.01.26" sheetId="6" r:id="rId5"/>
     <sheet name="2024.01.29" sheetId="10" r:id="rId6"/>
+    <sheet name="2024.01.30" sheetId="12" r:id="rId7"/>
+    <sheet name="2024.01.31" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +79,18 @@
   </si>
   <si>
     <t>요구분석서  유스케이스 기본틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서  ui 기본틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서  유스케이스 명세서 정정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 ui 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +300,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -603,20 +641,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,17 +666,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -646,17 +684,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -664,17 +702,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -682,17 +720,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -700,17 +738,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -718,17 +756,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -736,17 +774,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -782,20 +820,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -807,19 +845,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -829,19 +867,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -851,19 +889,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -873,19 +911,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -895,17 +933,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -913,17 +951,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -931,17 +969,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -976,20 +1014,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1001,19 +1039,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1023,19 +1061,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1045,19 +1083,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1067,19 +1105,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1089,17 +1127,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1107,17 +1145,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1125,17 +1163,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1183,20 +1221,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1208,19 +1246,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1230,19 +1268,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1252,19 +1290,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1274,19 +1312,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1296,17 +1334,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1314,17 +1352,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1332,17 +1370,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1576,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC30E8-162F-4A2D-845D-F94C05969670}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1763,4 +1801,386 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FF35DE-D4F8-4141-8E4F-3A4ED6E648CE}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70E443-3246-47E6-9164-B51BCBE339F9}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD8E73-31DC-4DBD-B9B0-1A27EA221C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF149E6-FF6A-42FF-B9FD-42AD93FE419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2024.01.29" sheetId="10" r:id="rId6"/>
     <sheet name="2024.01.30" sheetId="12" r:id="rId7"/>
     <sheet name="2024.01.31" sheetId="14" r:id="rId8"/>
+    <sheet name="2024.02.01" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,14 @@
   </si>
   <si>
     <t>요구분석서 ui 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 수정사항 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 ui정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +309,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -641,20 +662,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -666,17 +687,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -684,17 +705,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -702,17 +723,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -720,17 +741,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -738,17 +759,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -756,17 +777,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -774,17 +795,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -820,20 +841,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -845,19 +866,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -867,19 +888,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -889,19 +910,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -911,19 +932,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -933,17 +954,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -951,17 +972,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -969,17 +990,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1014,20 +1035,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1039,19 +1060,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1061,19 +1082,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1083,19 +1104,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1105,19 +1126,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1127,17 +1148,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1145,17 +1166,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1163,17 +1184,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1221,20 +1242,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1246,19 +1267,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1268,19 +1289,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1290,19 +1311,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1312,19 +1333,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1334,17 +1355,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1352,17 +1373,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1370,17 +1391,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2000,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70E443-3246-47E6-9164-B51BCBE339F9}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -2183,4 +2204,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87737-CBD9-4CD7-AC45-8BCFCC27086C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF149E6-FF6A-42FF-B9FD-42AD93FE419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7954A3-74EF-4BF4-B940-9E3F17DAFA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="2024.01.26" sheetId="6" r:id="rId5"/>
     <sheet name="2024.01.29" sheetId="10" r:id="rId6"/>
     <sheet name="2024.01.30" sheetId="12" r:id="rId7"/>
-    <sheet name="2024.01.31" sheetId="14" r:id="rId8"/>
-    <sheet name="2024.02.01" sheetId="16" r:id="rId9"/>
+    <sheet name="2024.01.31" sheetId="13" r:id="rId8"/>
+    <sheet name="2024.02.01 " sheetId="14" r:id="rId9"/>
+    <sheet name="2024.02.02" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,19 +88,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구분석서  유스케이스 명세서 정정</t>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구분석서 ui 정의서</t>
+    <t>요구분석서 유스케이스 정정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구분석서 수정사항 반영</t>
+    <t>회의참여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구분석서 ui정의서</t>
+    <t>요구분석서  수정사항 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 UI 정의서 추가된 내용 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃 사용방법 숙지중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,18 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -662,20 +659,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,17 +684,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -705,17 +702,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -723,17 +720,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -741,17 +738,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -759,17 +756,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -777,17 +774,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -795,17 +792,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -820,6 +817,199 @@
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0146EDE-6915-413F-8FFE-C51DF2EEEA63}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -841,20 +1031,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,19 +1056,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -888,19 +1078,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -910,19 +1100,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -932,19 +1122,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -954,17 +1144,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -972,17 +1162,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -990,17 +1180,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1035,20 +1225,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1060,19 +1250,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1082,19 +1272,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1104,19 +1294,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1126,19 +1316,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1148,17 +1338,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1166,17 +1356,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1184,17 +1374,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1242,20 +1432,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1267,19 +1457,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1289,19 +1479,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1311,19 +1501,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1333,19 +1523,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1355,17 +1545,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1373,17 +1563,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1391,17 +1581,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1829,7 +2019,7 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1900,7 +2090,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O4" s="7"/>
     </row>
@@ -1922,7 +2112,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -2018,11 +2208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70E443-3246-47E6-9164-B51BCBE339F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758B5F76-87D7-4599-9342-4C79F1CDBD90}">
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2058,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2080,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2093,7 +2283,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O4" s="7"/>
     </row>
@@ -2207,11 +2397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87737-CBD9-4CD7-AC45-8BCFCC27086C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C587699-1022-40C9-BDC9-35BAC3D5AB13}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2221,20 +2411,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2246,19 +2436,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2268,21 +2458,21 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="7"/>
     </row>
@@ -2290,35 +2480,39 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -2326,17 +2520,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2344,17 +2538,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2362,17 +2556,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7954A3-74EF-4BF4-B940-9E3F17DAFA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE18171-B401-4B14-913F-278A831FFF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2024.01.31" sheetId="13" r:id="rId8"/>
     <sheet name="2024.02.01 " sheetId="14" r:id="rId9"/>
     <sheet name="2024.02.02" sheetId="15" r:id="rId10"/>
+    <sheet name="2024.02.05" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,14 @@
   </si>
   <si>
     <t>깃 사용방법 숙지중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 보충중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 수정사항 반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,6 +327,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -659,20 +680,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,17 +705,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -702,17 +723,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -720,17 +741,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -738,17 +759,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -756,17 +777,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -774,17 +795,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -792,17 +813,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -827,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0146EDE-6915-413F-8FFE-C51DF2EEEA63}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -994,6 +1015,195 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1A00C4-93AA-4D78-B220-2AE680C2D3FB}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1031,20 +1241,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1056,19 +1266,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1078,19 +1288,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1100,19 +1310,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1122,19 +1332,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1144,17 +1354,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1162,17 +1372,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1180,17 +1390,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1225,20 +1435,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1250,19 +1460,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1272,19 +1482,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1294,19 +1504,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1316,19 +1526,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1338,17 +1548,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1356,17 +1566,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1374,17 +1584,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1432,20 +1642,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1457,19 +1667,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1479,19 +1689,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1501,19 +1711,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1523,19 +1733,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1545,17 +1755,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1563,17 +1773,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1581,17 +1791,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1628,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03865E17-540B-4192-9E5E-EEEE3F467D17}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE18171-B401-4B14-913F-278A831FFF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F07E7C-46CC-4333-A987-467B0855A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2024.02.01 " sheetId="14" r:id="rId9"/>
     <sheet name="2024.02.02" sheetId="15" r:id="rId10"/>
     <sheet name="2024.02.05" sheetId="16" r:id="rId11"/>
+    <sheet name="2024.02.06" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +118,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구분석서 수정사항 반영</t>
+    <t>요구분석서 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 변수명 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표준비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +340,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -680,20 +705,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -705,17 +730,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -723,17 +748,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -741,17 +766,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -759,17 +784,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -777,17 +802,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -795,17 +820,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -813,17 +838,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1041,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1A00C4-93AA-4D78-B220-2AE680C2D3FB}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1204,6 +1229,199 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DC44FD-CFE3-45F2-9A6D-EE77F9563435}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1241,20 +1459,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1266,19 +1484,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1288,19 +1506,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1310,19 +1528,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1332,19 +1550,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1354,17 +1572,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1372,17 +1590,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1390,17 +1608,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1435,20 +1653,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1460,19 +1678,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1482,19 +1700,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1504,19 +1722,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1526,19 +1744,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1548,17 +1766,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1566,17 +1784,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1584,17 +1802,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1642,20 +1860,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1667,19 +1885,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1689,19 +1907,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1711,19 +1929,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1733,19 +1951,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1755,17 +1973,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1773,17 +1991,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1791,17 +2009,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F07E7C-46CC-4333-A987-467B0855A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2E5C8-5BE7-4D68-9273-643A2B9193D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2024.02.02" sheetId="15" r:id="rId10"/>
     <sheet name="2024.02.05" sheetId="16" r:id="rId11"/>
     <sheet name="2024.02.06" sheetId="18" r:id="rId12"/>
+    <sheet name="2024.02.07" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,14 @@
   </si>
   <si>
     <t>발표준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 복습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,6 +349,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -705,20 +726,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,17 +751,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -748,17 +769,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -766,17 +787,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -784,17 +805,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -802,17 +823,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -820,17 +841,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -838,17 +859,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1255,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DC44FD-CFE3-45F2-9A6D-EE77F9563435}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1422,6 +1443,195 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C073F61-C8C8-4412-8D4F-DC3A8972EE1E}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1459,20 +1669,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1484,19 +1694,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1506,19 +1716,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1528,19 +1738,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1550,19 +1760,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1572,17 +1782,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1590,17 +1800,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1608,17 +1818,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1653,20 +1863,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1678,19 +1888,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1700,19 +1910,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1722,19 +1932,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1744,19 +1954,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1766,17 +1976,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1784,17 +1994,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1802,17 +2012,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1860,20 +2070,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1885,19 +2095,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1907,19 +2117,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1929,19 +2139,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1951,19 +2161,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1973,17 +2183,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1991,17 +2201,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2009,17 +2219,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2E5C8-5BE7-4D68-9273-643A2B9193D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347A47F-1889-4415-A376-2CE32BA4385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2024.02.05" sheetId="16" r:id="rId11"/>
     <sheet name="2024.02.06" sheetId="18" r:id="rId12"/>
     <sheet name="2024.02.07" sheetId="19" r:id="rId13"/>
+    <sheet name="2024.02.08" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +141,10 @@
   </si>
   <si>
     <t>ajax 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 화면 기본틀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +354,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -726,20 +743,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -751,17 +768,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -769,17 +786,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -787,17 +804,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -805,17 +822,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -823,17 +840,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -841,17 +858,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -859,17 +876,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1469,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C073F61-C8C8-4412-8D4F-DC3A8972EE1E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -1632,6 +1649,191 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F1CE6A-D907-4C61-A076-88DDBA99E519}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1669,20 +1871,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1694,19 +1896,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1716,19 +1918,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1738,19 +1940,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1760,19 +1962,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1782,17 +1984,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1800,17 +2002,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1818,17 +2020,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1863,20 +2065,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1888,19 +2090,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1910,19 +2112,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1932,19 +2134,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1954,19 +2156,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1976,17 +2178,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1994,17 +2196,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2012,17 +2214,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2070,20 +2272,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2095,19 +2297,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2117,19 +2319,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2139,19 +2341,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2161,19 +2363,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2183,17 +2385,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2201,17 +2403,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2219,17 +2421,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347A47F-1889-4415-A376-2CE32BA4385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B40030-E6A5-441E-AC58-BE1C93CD7E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="2024.02.06" sheetId="18" r:id="rId12"/>
     <sheet name="2024.02.07" sheetId="19" r:id="rId13"/>
     <sheet name="2024.02.08" sheetId="21" r:id="rId14"/>
+    <sheet name="2024.02.13" sheetId="23" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +146,10 @@
   </si>
   <si>
     <t>홈 화면 기본틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 화면 기본틀 시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +359,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -743,20 +760,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -768,17 +785,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -786,17 +803,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -804,17 +821,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -822,17 +839,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -840,17 +857,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -858,17 +875,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -876,17 +893,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1675,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F1CE6A-D907-4C61-A076-88DDBA99E519}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -1834,6 +1851,191 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA9C73-C3B6-4BC4-8DA3-7CEC3E2789C2}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1871,20 +2073,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1896,19 +2098,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1918,19 +2120,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1940,19 +2142,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1962,19 +2164,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1984,17 +2186,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2002,17 +2204,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2020,17 +2222,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2065,20 +2267,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2090,19 +2292,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2112,19 +2314,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2134,19 +2336,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2156,19 +2358,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2178,17 +2380,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2196,17 +2398,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2214,17 +2416,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2272,20 +2474,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2297,19 +2499,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2319,19 +2521,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2341,19 +2543,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2363,19 +2565,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2385,17 +2587,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2403,17 +2605,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2421,17 +2623,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B40030-E6A5-441E-AC58-BE1C93CD7E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04627085-E240-40C8-A5B4-EC3804AB59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="2024.02.07" sheetId="19" r:id="rId13"/>
     <sheet name="2024.02.08" sheetId="21" r:id="rId14"/>
     <sheet name="2024.02.13" sheetId="23" r:id="rId15"/>
+    <sheet name="2024.02.14" sheetId="25" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +151,10 @@
   </si>
   <si>
     <t>홈 화면 기본틀 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">j쿼리공부 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +364,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -760,20 +777,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -785,17 +802,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -803,17 +820,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -821,17 +838,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -839,17 +856,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -857,17 +874,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -875,17 +892,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -893,17 +910,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1877,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA9C73-C3B6-4BC4-8DA3-7CEC3E2789C2}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -2036,6 +2053,191 @@
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945489CF-1463-476F-8725-7BF332B5EF53}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2073,20 +2275,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2098,19 +2300,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2120,19 +2322,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2142,19 +2344,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2164,19 +2366,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2186,17 +2388,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2204,17 +2406,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2222,17 +2424,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2267,20 +2469,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2292,19 +2494,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2314,19 +2516,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2336,19 +2538,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2358,19 +2560,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2380,17 +2582,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2398,17 +2600,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2416,17 +2618,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2474,20 +2676,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2499,19 +2701,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2521,19 +2723,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2543,19 +2745,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2565,19 +2767,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2587,17 +2789,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2605,17 +2807,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2623,17 +2825,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04627085-E240-40C8-A5B4-EC3804AB59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25116D6E-E08A-4786-AD61-D51335734A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2024.02.08" sheetId="21" r:id="rId14"/>
     <sheet name="2024.02.13" sheetId="23" r:id="rId15"/>
     <sheet name="2024.02.14" sheetId="25" r:id="rId16"/>
+    <sheet name="2024.02.15" sheetId="26" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +156,10 @@
   </si>
   <si>
     <t xml:space="preserve">j쿼리공부 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 공개 설정 작업시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +369,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -777,20 +794,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -802,17 +819,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -820,17 +837,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -838,17 +855,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -856,17 +873,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -874,17 +891,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -892,17 +909,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -910,17 +927,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2079,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945489CF-1463-476F-8725-7BF332B5EF53}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -2238,6 +2255,191 @@
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63EC5F1-E360-4AC6-B076-5178E0930E49}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2275,20 +2477,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2300,19 +2502,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2322,19 +2524,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2344,19 +2546,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2366,19 +2568,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2388,17 +2590,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2406,17 +2608,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2424,17 +2626,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2469,20 +2671,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2494,19 +2696,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2516,19 +2718,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2538,19 +2740,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2560,19 +2762,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2582,17 +2784,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2600,17 +2802,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2618,17 +2820,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2676,20 +2878,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2701,19 +2903,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2723,19 +2925,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2745,19 +2947,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2767,19 +2969,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2789,17 +2991,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2807,17 +3009,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2825,17 +3027,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25116D6E-E08A-4786-AD61-D51335734A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757A436-DA40-45BD-8BB6-2576D6C8504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="2024.02.13" sheetId="23" r:id="rId15"/>
     <sheet name="2024.02.14" sheetId="25" r:id="rId16"/>
     <sheet name="2024.02.15" sheetId="26" r:id="rId17"/>
+    <sheet name="2024.02.16" sheetId="28" r:id="rId18"/>
+    <sheet name="2024.02.19" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +162,14 @@
   </si>
   <si>
     <t>계정 공개 설정 작업시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계정 공개 설정 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +379,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -794,20 +828,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,17 +853,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -837,17 +871,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -855,17 +889,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -873,17 +907,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -891,17 +925,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -909,17 +943,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -927,17 +961,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2281,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63EC5F1-E360-4AC6-B076-5178E0930E49}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2440,6 +2474,380 @@
       <c r="K9" s="50"/>
       <c r="L9" s="50"/>
       <c r="M9" s="50"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9887D4D-3BAE-4B4E-83B1-FB5C4532083B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2477,20 +2885,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2502,19 +2910,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2524,19 +2932,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2546,19 +2954,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2568,19 +2976,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2590,17 +2998,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2608,17 +3016,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2626,17 +3034,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2671,20 +3079,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2696,19 +3104,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2718,19 +3126,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2740,19 +3148,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2762,19 +3170,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2784,17 +3192,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2802,17 +3210,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2820,17 +3228,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2878,20 +3286,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2903,19 +3311,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2925,19 +3333,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2947,19 +3355,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2969,19 +3377,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2991,17 +3399,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3009,17 +3417,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3027,17 +3435,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757A436-DA40-45BD-8BB6-2576D6C8504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1AC8C-57B4-4452-BC08-43F75D99385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="2024.02.15" sheetId="26" r:id="rId17"/>
     <sheet name="2024.02.16" sheetId="28" r:id="rId18"/>
     <sheet name="2024.02.19" sheetId="32" r:id="rId19"/>
+    <sheet name="2024.02.20" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,6 +380,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -828,20 +841,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -853,17 +866,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -871,17 +884,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -889,17 +902,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -907,17 +920,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -925,17 +938,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -943,17 +956,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -961,17 +974,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2685,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2885,6 +2898,200 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2F35B2-F126-4C9B-A7B0-25C5644674A2}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
       <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
@@ -2924,7 +3131,7 @@
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="N3" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O3" s="7"/>
     </row>
@@ -2932,9 +3139,7 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="61"/>
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
@@ -2945,18 +3150,14 @@
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="61"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
@@ -2967,18 +3168,14 @@
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61"/>
-      <c r="N5" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="61"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
       <c r="F6" s="61"/>
@@ -2989,9 +3186,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
-      <c r="N6" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15">
@@ -3048,19 +3243,22 @@
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3079,20 +3277,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3104,19 +3302,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3126,19 +3324,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3148,19 +3346,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3170,19 +3368,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3192,17 +3390,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3210,17 +3408,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3228,17 +3426,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -3286,20 +3484,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3311,19 +3509,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3333,19 +3531,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3355,19 +3553,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3377,19 +3575,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3399,17 +3597,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3417,17 +3615,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3435,17 +3633,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
